--- a/medicine/Psychotrope/Bouteille_de_bière/Bouteille_de_bière.xlsx
+++ b/medicine/Psychotrope/Bouteille_de_bière/Bouteille_de_bière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bouteille_de_bi%C3%A8re</t>
+          <t>Bouteille_de_bière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une bouteille à bière est une bouteille spécialement adaptée afin de contenir de la bière, c'est-à-dire une boisson hautement gazéifiée, fermentant encore souvent en bouteille, fragile à l'exposition à la lumière, et nécessitant diverses tailles de contenance afin de s'adapter aux profils de consommation. Depuis le XVIe siècle, on use de bouteilles en verre épais (afin de pouvoir résister à la pression) et foncé à cette fin, bien que la céramique ait longtemps dominé et qu'aujourd'hui, le plastique ou l'aluminium la remplace de plus en plus. Le choix d'un type de bouteille est donc crucial pour la conservation, le transport et la commercialisation de la bière. Depuis le XXe siècle, ces bouteilles sont aussi prisées afin de pouvoir être lavées et réutilisées.
-L'embouteillage est une opération complexe nécessitant de multiples opérations dans des conditions d'aseptisation : triage et dégroupage des bouteilles en palettes, rinçage à l'eau ou à l'air, remplissage avec la bière et un peu de gaz inerte (CO2 ou azote) pour éviter l'oxydation du contenu, étiquetage, fermeture ou bouchage, empaquetage[1].
+L'embouteillage est une opération complexe nécessitant de multiples opérations dans des conditions d'aseptisation : triage et dégroupage des bouteilles en palettes, rinçage à l'eau ou à l'air, remplissage avec la bière et un peu de gaz inerte (CO2 ou azote) pour éviter l'oxydation du contenu, étiquetage, fermeture ou bouchage, empaquetage.
 Les bouteilles de bière sont commercialisées soit à l'unité soit en pack de 6, 12 ou 24, soit en caisse de 9, 10, 11, 20 (pour les 50 cl) et 24, 25 ou 30 (pour les 33 cl). Elles sont parfois consignées.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bouteille_de_bi%C3%A8re</t>
+          <t>Bouteille_de_bière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Taille et forme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Il existe de nombreuses formes et tailles de bouteilles à bière dans l'ensemble des pays du monde, qui ont chacun des standards différents et des préférences de consommation diverses. Toutefois, les petites bouteilles, souvent appelées canettes, ont dominé le marché durant les années 1962 à 1986 afin de réduire les pertes liées à la casse et afin de standardiser le tri, l'embouteillage ou le recyclage, bien qu'il en existe des dizaines de variétés[2]. À l'origine, ce terme ne désignait que les bouteilles fermées au moyen d'un bouchon mécanique, mais très vite le terme s'est aussi appliqué de façon populaire à toutes les petites bouteilles encapsulées, à col court ou long, notamment à la suite de l'introduction des canettes métalliques dans les années 1930, qui représentaient une réelle menace pour l'industrie du verre.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Il existe de nombreuses formes et tailles de bouteilles à bière dans l'ensemble des pays du monde, qui ont chacun des standards différents et des préférences de consommation diverses. Toutefois, les petites bouteilles, souvent appelées canettes, ont dominé le marché durant les années 1962 à 1986 afin de réduire les pertes liées à la casse et afin de standardiser le tri, l'embouteillage ou le recyclage, bien qu'il en existe des dizaines de variétés. À l'origine, ce terme ne désignait que les bouteilles fermées au moyen d'un bouchon mécanique, mais très vite le terme s'est aussi appliqué de façon populaire à toutes les petites bouteilles encapsulées, à col court ou long, notamment à la suite de l'introduction des canettes métalliques dans les années 1930, qui représentaient une réelle menace pour l'industrie du verre.
 Sa capacité varie selon les pays : entre 25 et 33 cl en Europe et 330 ou 375 ml aux États-Unis et 341 à 355 ml au Canada (et entre 80, 750 ml et 2,25 l en Australie pour la Darwin stuby). Ses avantages sont : une meilleure manipulation, moins de casse, gain de poids, gain de place, un centre de gravité plus bas assurant une meilleure stabilité. 
 En Allemagne, le standard est de 50 cl. L'Euro2-Flasche a prévalu jusqu'en 1989 ; depuis, la NRW-Flasche est apparue ainsi que les Longneckflaschen. On trouve aussi à moindre échelle des standards de 33 cl.
 En Autriche on trouve comme en Allemagne, des bouteilles consignées de 50 cl de forme NRW et appelées Patrone. On trouve aussi quelques canettes non consignées de 25 ou 33 cl.
@@ -544,7 +558,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bouteille_de_bi%C3%A8re</t>
+          <t>Bouteille_de_bière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -562,11 +576,13 @@
           <t>Couleur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien qu'il existe des bouteilles en verre incolore destinées en général à des bières ou des prémix à la couleur prononcée, l'usage habituel est plutôt au verre brun, voire vert. Les bouteilles en verre vert ont été longtemps produites dans les Pays de l'Est et en Chine jusque dans les années 1980.
-Des recherches ont prouvé la rapide altération de la bière face à l'exposition de la lumière au travers de verre vert ou incolore, alors que le verre brun assure une protection suffisante[3]. Des études ont en outre montré la préférence des consommateurs pour ce type de couleur (brun). Toutefois, bien des brasseries continuent de produire des marques avec des bouteilles en verre vert afin de se distinguer : Pilsner Urquell, Beck's, Jever, Heineken, Ottakringer...
-De nouveaux matériaux sont employés afin de lutter contre la photo-sensibilité de la bière : des verres incolores contenant un oxyde métallique protégeant de la lumière et des ultraviolets qui provoquent la venue de riboflavine et détruisent l'isohumulone, une molécule qui contribue à l'amertume et qui dérive du houblon. La molécule résultante de cette transformation, la 3-méthylbut-2-ène-1-thiol est très similaire chimiquement et olfactivement à celle du thiol issu de la mouffette[4].
+Des recherches ont prouvé la rapide altération de la bière face à l'exposition de la lumière au travers de verre vert ou incolore, alors que le verre brun assure une protection suffisante. Des études ont en outre montré la préférence des consommateurs pour ce type de couleur (brun). Toutefois, bien des brasseries continuent de produire des marques avec des bouteilles en verre vert afin de se distinguer : Pilsner Urquell, Beck's, Jever, Heineken, Ottakringer...
+De nouveaux matériaux sont employés afin de lutter contre la photo-sensibilité de la bière : des verres incolores contenant un oxyde métallique protégeant de la lumière et des ultraviolets qui provoquent la venue de riboflavine et détruisent l'isohumulone, une molécule qui contribue à l'amertume et qui dérive du houblon. La molécule résultante de cette transformation, la 3-méthylbut-2-ène-1-thiol est très similaire chimiquement et olfactivement à celle du thiol issu de la mouffette.
 Certaines bouteilles sont recouvertes d'une fine pellicule métallique et certaines brasseries emploient également des extraits de houblon sans isohumulones afin d'éviter ce souci.
 </t>
         </is>
@@ -578,7 +594,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bouteille_de_bi%C3%A8re</t>
+          <t>Bouteille_de_bière</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,7 +612,9 @@
           <t>Résistance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La stabilité d'une bouteille remplie fermée provient de sa contenance en alcool, du taux de CO2, de l’usure de la bouteille et de la hauteur de remplissage. Une bouteille de bière est exposée à de nombreux facteurs réduisant sa durée de service : 
 Désign : La géométrie, la forme et l'épaisseur de la bouteille ont une incidence sur la stabilité de la bouteille.
@@ -612,7 +630,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bouteille_de_bi%C3%A8re</t>
+          <t>Bouteille_de_bière</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -630,9 +648,11 @@
           <t>Widget</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la suite des demandes de certains consommateurs (cf. CAMRA), certaines bouteilles de bière ont un mécanisme appelé widget permettant de reproduire la qualité de mousse d'une bière pression tirée à la pompe à bière. Il s'agit d'un petit dispositif placé dans la bouteille telle une cartouche contenant du gaz inerte (CO2 et azote). Lors de l'ouverture de la bouteille, ce gaz est libéré, augmentant l'aération de la bière et la mousse. C'est la brasserie Guinness qui a lancé le rocket-widget dans les années 1980 en même temps que celui destiné aux canettes métalliques[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite des demandes de certains consommateurs (cf. CAMRA), certaines bouteilles de bière ont un mécanisme appelé widget permettant de reproduire la qualité de mousse d'une bière pression tirée à la pompe à bière. Il s'agit d'un petit dispositif placé dans la bouteille telle une cartouche contenant du gaz inerte (CO2 et azote). Lors de l'ouverture de la bouteille, ce gaz est libéré, augmentant l'aération de la bière et la mousse. C'est la brasserie Guinness qui a lancé le rocket-widget dans les années 1980 en même temps que celui destiné aux canettes métalliques.
 </t>
         </is>
       </c>
@@ -643,7 +663,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bouteille_de_bi%C3%A8re</t>
+          <t>Bouteille_de_bière</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -661,7 +681,9 @@
           <t>Fermeture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Les bouteilles de bière sont fermées à l'aide de divers mécanismes : 
 à usage unique :capsule  ou bouchon de bouteille en liège avec plaque de muselet. Parfois une combinaison des deux est possible : capsule et bouchon de liège pour les lambics. Ou encore un dispositif de pull-off emprunté aux canettes métalliques chapeaute une capsule, augmentant ainsi ses performances. Bien souvent un emballage métallique complète la fermeture.
@@ -675,7 +697,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bouteille_de_bi%C3%A8re</t>
+          <t>Bouteille_de_bière</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -693,7 +715,9 @@
           <t>Étiquetage</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Une étiquette de bière et une collerette sont collées sur la bouteille afin d'en faciliter l'identification et afin d'informer le consommateur. C'est alors un produit en soi vantant une marque.
 </t>
@@ -706,7 +730,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bouteille_de_bi%C3%A8re</t>
+          <t>Bouteille_de_bière</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -724,7 +748,9 @@
           <t>Réemploi et recyclage</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour des raisons économiques et écologiques, la plupart des bouteilles sont consignées et réutilisées :
 Réemploi : Si le taux moyen de réutilisation d'une bouteille de bière est de 5 à 9 grâce au système de la consigne, il peut être optimisé à 20 et même jusqu'à 50 en cas de conditions favorables. Les bouteilles individualisées comportant des marques spécifiques à des brasseries ont un taux moindre.
